--- a/Theo dõi/T1 2026 02-01.xlsx
+++ b/Theo dõi/T1 2026 02-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F9DF2-4104-4760-B747-3678C4F611C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB3DC6-A586-4F92-9FEC-99640238DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="374" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -294,6 +294,13 @@
   </si>
   <si>
     <t>DOANH THU 03/01/2026</t>
+  </si>
+  <si>
+    <t>Chưa chuyển</t>
+  </si>
+  <si>
+    <t>mới nhận 900
+thiếu 210</t>
   </si>
 </sst>
 </file>
@@ -303,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +471,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +600,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,6 +705,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,6 +725,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1714,32 +1749,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -2310,20 +2345,20 @@
       <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="9">
         <f>SUM(H7:H1000)</f>
         <v>24820000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="9">
         <f>SUM(I7:I1000)</f>
         <v>14390000</v>
@@ -2421,7 +2456,7 @@
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,32 +2478,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -2567,7 +2602,7 @@
         <v>2500000</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" ref="I8:I21" si="0">H8*$E$26</f>
+        <f>H8*$E$26</f>
         <v>1500000</v>
       </c>
       <c r="J8" s="39" t="s">
@@ -2614,7 +2649,7 @@
     </row>
     <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B24" si="1">B9 +1</f>
+        <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -2636,7 +2671,7 @@
         <v>1760000</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I21" si="1">H10*$E$26</f>
         <v>1056000</v>
       </c>
       <c r="J10" s="16" t="s">
@@ -2648,7 +2683,7 @@
     </row>
     <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2670,7 +2705,7 @@
         <v>1950000</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1170000</v>
       </c>
       <c r="J11" s="39" t="s">
@@ -2684,7 +2719,7 @@
     </row>
     <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2706,7 +2741,7 @@
         <v>1975000</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1185000</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -2718,7 +2753,7 @@
     </row>
     <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2740,7 +2775,7 @@
         <v>2050000</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1230000</v>
       </c>
       <c r="J13" s="16" t="s">
@@ -2754,7 +2789,7 @@
     </row>
     <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2776,7 +2811,7 @@
         <v>2200000</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1320000</v>
       </c>
       <c r="J14" s="16" t="s">
@@ -2788,7 +2823,7 @@
     </row>
     <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2810,7 +2845,7 @@
         <v>1870000</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1122000</v>
       </c>
       <c r="J15" s="16" t="s">
@@ -2822,7 +2857,7 @@
     </row>
     <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2844,7 +2879,7 @@
         <v>2130000</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1278000</v>
       </c>
       <c r="J16" s="16" t="s">
@@ -2856,7 +2891,7 @@
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2889,7 +2924,7 @@
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2924,7 +2959,7 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -2960,7 +2995,7 @@
         <v>71</v>
       </c>
       <c r="B20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -3018,7 +3053,7 @@
         <v>1150000</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>690000</v>
       </c>
       <c r="J21" s="16" t="s">
@@ -3030,7 +3065,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3063,7 +3098,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3096,7 +3131,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3137,20 +3172,20 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
         <v>29135000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
         <v>17346000</v>
@@ -3232,7 +3267,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -3251,10 +3285,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002816DB-42BB-432B-9938-04B7FA91672A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,32 +3311,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J4" s="26"/>
@@ -3363,8 +3398,12 @@
       <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>2420000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1390000</v>
+      </c>
       <c r="J7" s="16" t="s">
         <v>69</v>
       </c>
@@ -3392,15 +3431,22 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="39" t="s">
-        <v>26</v>
+      <c r="H8" s="10">
+        <v>2610000</v>
+      </c>
+      <c r="I8" s="10">
+        <f>H8*$E$26</f>
+        <v>1566000</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -3423,8 +3469,12 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>2080000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1250000</v>
+      </c>
       <c r="J9" s="16" t="s">
         <v>69</v>
       </c>
@@ -3432,7 +3482,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="33" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" ref="B10:B24" si="0">B9 +1</f>
         <v>4</v>
@@ -3452,13 +3502,22 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="16"/>
+      <c r="H10" s="10">
+        <v>1850000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" ref="I10:I20" si="1">H10*$E$26</f>
+        <v>1110000</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -3481,15 +3540,22 @@
       <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="39" t="s">
-        <v>26</v>
+      <c r="H11" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -3512,8 +3578,13 @@
       <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10">
+        <v>2220000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>1332000</v>
+      </c>
       <c r="J12" s="16" t="s">
         <v>69</v>
       </c>
@@ -3541,8 +3612,13 @@
       <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="10">
+        <v>1880000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>1128000</v>
+      </c>
       <c r="J13" s="16" t="s">
         <v>69</v>
       </c>
@@ -3572,8 +3648,12 @@
       <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>2245000</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1392000</v>
+      </c>
       <c r="J14" s="16" t="s">
         <v>69</v>
       </c>
@@ -3601,8 +3681,13 @@
       <c r="G15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10">
+        <v>1780000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
       <c r="J15" s="16" t="s">
         <v>69</v>
       </c>
@@ -3630,8 +3715,13 @@
       <c r="G16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="10">
+        <v>2130000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>1278000</v>
+      </c>
       <c r="J16" s="16" t="s">
         <v>69</v>
       </c>
@@ -3659,8 +3749,13 @@
       <c r="G17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="10">
+        <v>2245000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>1347000</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>69</v>
       </c>
@@ -3688,15 +3783,22 @@
       <c r="G18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="39" t="s">
-        <v>26</v>
+      <c r="H18" s="10">
+        <v>2520000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>1512000</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -3719,8 +3821,12 @@
       <c r="G19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="10">
+        <v>1880000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1130000</v>
+      </c>
       <c r="J19" s="16" t="s">
         <v>69</v>
       </c>
@@ -3729,14 +3835,12 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3751,24 +3855,26 @@
       <c r="G20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="39" t="s">
+      <c r="H20" s="10">
+        <v>2100000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1050000</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3">
         <f>B20 +1</f>
         <v>15</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3783,13 +3889,17 @@
       <c r="G21" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="10">
+        <v>1710000</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1020000</v>
+      </c>
       <c r="J21" s="16" t="s">
         <v>69</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="35"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
@@ -3901,23 +4011,23 @@
       <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="9">
         <f>SUM(H7:H1001)</f>
-        <v>0</v>
+        <v>32170000</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="9">
         <f>SUM(I7:I1001)</f>
-        <v>0</v>
+        <v>19073000</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
